--- a/data_year/zb/教育/职业技术培训机构基本情况/职业技术培训机构结业学生数.xlsx
+++ b/data_year/zb/教育/职业技术培训机构基本情况/职业技术培训机构结业学生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,627 +518,297 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2045.4879</v>
+        <v>1829.8556</v>
       </c>
       <c r="C2" t="n">
-        <v>801.7676</v>
+        <v>1132.5286</v>
       </c>
       <c r="D2" t="n">
-        <v>127.158</v>
+        <v>208.0117</v>
       </c>
       <c r="E2" t="n">
-        <v>197.5456</v>
+        <v>91.8546</v>
       </c>
       <c r="F2" t="n">
-        <v>90.55119999999999</v>
+        <v>128.8757</v>
       </c>
       <c r="G2" t="n">
-        <v>5127.1952</v>
+        <v>3813.0624</v>
       </c>
       <c r="H2" t="n">
-        <v>210.191</v>
+        <v>262.8363</v>
       </c>
       <c r="I2" t="n">
-        <v>71.9832</v>
+        <v>91.66630000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>4921.2599</v>
+        <v>3711.7096</v>
       </c>
       <c r="K2" t="n">
-        <v>138.9329</v>
+        <v>148.3101</v>
       </c>
       <c r="L2" t="n">
-        <v>2665.581</v>
+        <v>1619.0177</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6264</v>
+        <v>832.8506</v>
       </c>
       <c r="N2" t="n">
-        <v>8.389699999999999</v>
+        <v>9.498200000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>18.5434</v>
+        <v>29.5153</v>
       </c>
       <c r="P2" t="n">
-        <v>6176.9903</v>
+        <v>5252.2921</v>
       </c>
       <c r="Q2" t="n">
-        <v>248.0275</v>
+        <v>306.7011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2005.3644</v>
+        <v>1834.2746</v>
       </c>
       <c r="C3" t="n">
-        <v>947.6408</v>
+        <v>1021.6106</v>
       </c>
       <c r="D3" t="n">
-        <v>88.05719999999999</v>
+        <v>179.557</v>
       </c>
       <c r="E3" t="n">
-        <v>72.6818</v>
+        <v>97.4045</v>
       </c>
       <c r="F3" t="n">
-        <v>61.228</v>
+        <v>114.031</v>
       </c>
       <c r="G3" t="n">
-        <v>4793.1805</v>
+        <v>3794.6868</v>
       </c>
       <c r="H3" t="n">
-        <v>124.6986</v>
+        <v>309.2944</v>
       </c>
       <c r="I3" t="n">
-        <v>99.9029</v>
+        <v>99.1477</v>
       </c>
       <c r="J3" t="n">
-        <v>4687.046</v>
+        <v>3679.1291</v>
       </c>
       <c r="K3" t="n">
-        <v>105.3748</v>
+        <v>180.37</v>
       </c>
       <c r="L3" t="n">
-        <v>2556.983</v>
+        <v>1535.5601</v>
       </c>
       <c r="M3" t="n">
-        <v>759.6807</v>
+        <v>742.9059</v>
       </c>
       <c r="N3" t="n">
-        <v>33.4527</v>
+        <v>18.1532</v>
       </c>
       <c r="O3" t="n">
-        <v>26.7639</v>
+        <v>35.8892</v>
       </c>
       <c r="P3" t="n">
-        <v>5934.188</v>
+        <v>5146.5876</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.3667</v>
+        <v>330.2902</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1978.9469</v>
+        <v>1644.5494</v>
       </c>
       <c r="C4" t="n">
-        <v>987.8497</v>
+        <v>965.5622</v>
       </c>
       <c r="D4" t="n">
-        <v>117.9261</v>
+        <v>146.0309</v>
       </c>
       <c r="E4" t="n">
-        <v>82.72629999999999</v>
+        <v>133.4033</v>
       </c>
       <c r="F4" t="n">
-        <v>84.3502</v>
+        <v>128.8111</v>
       </c>
       <c r="G4" t="n">
-        <v>4520.5798</v>
+        <v>3563.1908</v>
       </c>
       <c r="H4" t="n">
-        <v>134.2845</v>
+        <v>355.231</v>
       </c>
       <c r="I4" t="n">
-        <v>82.6118</v>
+        <v>87.62309999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>4427.7451</v>
+        <v>3407.6594</v>
       </c>
       <c r="K4" t="n">
-        <v>108.1323</v>
+        <v>140.3178</v>
       </c>
       <c r="L4" t="n">
-        <v>2314.5137</v>
+        <v>1407.879</v>
       </c>
       <c r="M4" t="n">
-        <v>787.3117999999999</v>
+        <v>731.9082</v>
       </c>
       <c r="N4" t="n">
-        <v>10.1084</v>
+        <v>22.1281</v>
       </c>
       <c r="O4" t="n">
-        <v>32.7036</v>
+        <v>25.4786</v>
       </c>
       <c r="P4" t="n">
-        <v>5733.6156</v>
+        <v>4823.3605</v>
       </c>
       <c r="Q4" t="n">
-        <v>225.1861</v>
+        <v>294.6075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2108.8784</v>
+        <v>1576.9477</v>
       </c>
       <c r="C5" t="n">
-        <v>1068.1633</v>
+        <v>1005.003</v>
       </c>
       <c r="D5" t="n">
-        <v>118.0704</v>
+        <v>152.7813</v>
       </c>
       <c r="E5" t="n">
-        <v>99.5351</v>
+        <v>200.1394</v>
       </c>
       <c r="F5" t="n">
-        <v>118.5371</v>
+        <v>124.6713</v>
       </c>
       <c r="G5" t="n">
-        <v>4670.3495</v>
+        <v>3416.0351</v>
       </c>
       <c r="H5" t="n">
-        <v>121.4242</v>
+        <v>309.4009</v>
       </c>
       <c r="I5" t="n">
-        <v>74.7817</v>
+        <v>111.6926</v>
       </c>
       <c r="J5" t="n">
-        <v>4553.7481</v>
+        <v>3189.0903</v>
       </c>
       <c r="K5" t="n">
-        <v>111.8186</v>
+        <v>142.4911</v>
       </c>
       <c r="L5" t="n">
-        <v>2323.4455</v>
+        <v>1302.7417</v>
       </c>
       <c r="M5" t="n">
-        <v>875.3112</v>
+        <v>740.5291</v>
       </c>
       <c r="N5" t="n">
-        <v>17.0663</v>
+        <v>26.8054</v>
       </c>
       <c r="O5" t="n">
-        <v>34.3078</v>
+        <v>27.3963</v>
       </c>
       <c r="P5" t="n">
-        <v>6003.1763</v>
+        <v>4715.5968</v>
       </c>
       <c r="Q5" t="n">
-        <v>264.6635</v>
+        <v>294.5587</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2047.7025</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1093.4588</v>
-      </c>
-      <c r="D6" t="n">
-        <v>203.237</v>
-      </c>
-      <c r="E6" t="n">
-        <v>90.7119</v>
-      </c>
-      <c r="F6" t="n">
-        <v>133.6952</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4358.2242</v>
-      </c>
-      <c r="H6" t="n">
-        <v>150.6701</v>
-      </c>
-      <c r="I6" t="n">
-        <v>118.3997</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4241.0674</v>
-      </c>
-      <c r="K6" t="n">
-        <v>104.8307</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2042.6948</v>
-      </c>
-      <c r="M6" t="n">
-        <v>771.8221</v>
-      </c>
-      <c r="N6" t="n">
-        <v>26.4449</v>
-      </c>
-      <c r="O6" t="n">
-        <v>30.7866</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>5720.9955</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>269.3125</v>
-      </c>
+        <v>4479.5293</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1910.559</v>
-      </c>
-      <c r="C7" t="n">
-        <v>997.0498</v>
-      </c>
-      <c r="D7" t="n">
-        <v>153.3502</v>
-      </c>
-      <c r="E7" t="n">
-        <v>93.9607</v>
-      </c>
-      <c r="F7" t="n">
-        <v>140.0435</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4130.668</v>
-      </c>
-      <c r="H7" t="n">
-        <v>181.3254</v>
-      </c>
-      <c r="I7" t="n">
-        <v>88.1532</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4007.1766</v>
-      </c>
-      <c r="K7" t="n">
-        <v>136.0823</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1915.2922</v>
-      </c>
-      <c r="M7" t="n">
-        <v>755.5463999999999</v>
-      </c>
-      <c r="N7" t="n">
-        <v>29.5307</v>
-      </c>
-      <c r="O7" t="n">
-        <v>26.6689</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>5430.5125</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>302.7947</v>
-      </c>
+        <v>4379.4966</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1829.8556</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1132.5286</v>
-      </c>
-      <c r="D8" t="n">
-        <v>208.0117</v>
-      </c>
-      <c r="E8" t="n">
-        <v>91.8546</v>
-      </c>
-      <c r="F8" t="n">
-        <v>128.8757</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3813.0624</v>
-      </c>
-      <c r="H8" t="n">
-        <v>262.8363</v>
-      </c>
-      <c r="I8" t="n">
-        <v>91.66630000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3711.7096</v>
-      </c>
-      <c r="K8" t="n">
-        <v>148.3101</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1619.0177</v>
-      </c>
-      <c r="M8" t="n">
-        <v>832.8506</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9.498200000000001</v>
-      </c>
-      <c r="O8" t="n">
-        <v>29.5153</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>5252.2921</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>306.7011</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1834.2746</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1021.6106</v>
-      </c>
-      <c r="D9" t="n">
-        <v>179.557</v>
-      </c>
-      <c r="E9" t="n">
-        <v>97.4045</v>
-      </c>
-      <c r="F9" t="n">
-        <v>114.031</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3794.6868</v>
-      </c>
-      <c r="H9" t="n">
-        <v>309.2944</v>
-      </c>
-      <c r="I9" t="n">
-        <v>99.1477</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3679.1291</v>
-      </c>
-      <c r="K9" t="n">
-        <v>180.37</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1535.5601</v>
-      </c>
-      <c r="M9" t="n">
-        <v>742.9059</v>
-      </c>
-      <c r="N9" t="n">
-        <v>18.1532</v>
-      </c>
-      <c r="O9" t="n">
-        <v>35.8892</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5146.5876</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>330.2902</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1644.5494</v>
-      </c>
-      <c r="C10" t="n">
-        <v>965.5622</v>
-      </c>
-      <c r="D10" t="n">
-        <v>146.0309</v>
-      </c>
-      <c r="E10" t="n">
-        <v>133.4033</v>
-      </c>
-      <c r="F10" t="n">
-        <v>128.8111</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3563.1908</v>
-      </c>
-      <c r="H10" t="n">
-        <v>355.231</v>
-      </c>
-      <c r="I10" t="n">
-        <v>87.62309999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3407.6594</v>
-      </c>
-      <c r="K10" t="n">
-        <v>140.3178</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1407.879</v>
-      </c>
-      <c r="M10" t="n">
-        <v>731.9082</v>
-      </c>
-      <c r="N10" t="n">
-        <v>22.1281</v>
-      </c>
-      <c r="O10" t="n">
-        <v>25.4786</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4823.3605</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>294.6075</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1576.9477</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1005.003</v>
-      </c>
-      <c r="D11" t="n">
-        <v>152.7813</v>
-      </c>
-      <c r="E11" t="n">
-        <v>200.1394</v>
-      </c>
-      <c r="F11" t="n">
-        <v>124.6713</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3416.0351</v>
-      </c>
-      <c r="H11" t="n">
-        <v>309.4009</v>
-      </c>
-      <c r="I11" t="n">
-        <v>111.6926</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3189.0903</v>
-      </c>
-      <c r="K11" t="n">
-        <v>142.4911</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1302.7417</v>
-      </c>
-      <c r="M11" t="n">
-        <v>740.5291</v>
-      </c>
-      <c r="N11" t="n">
-        <v>26.8054</v>
-      </c>
-      <c r="O11" t="n">
-        <v>27.3963</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4715.5968</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>294.5587</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
-        <v>4479.5293</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
-        <v>4379.4966</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
         <v>4280.0768</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
